--- a/Gantt.xlsx
+++ b/Gantt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Southampton\FMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Southampton\FMP\Creature_Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{255BE1C1-51C4-4DD8-8ED6-DBF03F392E6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C646D0-EA1F-4FF5-AC0A-DD991D3DD843}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,14 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Project Planner</t>
   </si>
@@ -174,23 +180,35 @@
     <t xml:space="preserve">in between 02 / 03 / 2019 and 03/ 05/2019(63days)  </t>
   </si>
   <si>
-    <t xml:space="preserve">   GUI Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Directory Selection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Export Function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Functionality of the GUI</t>
+    <t>Implementation of Metaballs</t>
+  </si>
+  <si>
+    <t>GUI Design</t>
+  </si>
+  <si>
+    <t>Functionality of the GUI</t>
+  </si>
+  <si>
+    <t>Implementation of Lindenmayer System</t>
+  </si>
+  <si>
+    <t>Finding fitting rulesets</t>
+  </si>
+  <si>
+    <t>Generating mesh of the metaballs</t>
+  </si>
+  <si>
+    <t>Directory Selection</t>
+  </si>
+  <si>
+    <t>Export Function</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -297,8 +315,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +391,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,7 +556,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -572,6 +614,48 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="18" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="11" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -608,55 +692,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="11" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="4" applyFill="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="13" borderId="0" xfId="6" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="14" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="10" borderId="0" xfId="6" applyFont="1" applyFill="1">
+    <xf numFmtId="9" fontId="6" fillId="15" borderId="0" xfId="6" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="11" borderId="0" xfId="6" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="12" borderId="0" xfId="6" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -681,7 +753,7 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
@@ -709,119 +781,6 @@
         </top>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1101,6 +1060,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC00CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1343,16 +1307,16 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BR34"/>
+  <dimension ref="B1:BR38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="24.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="2" customWidth="1"/>
     <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
     <col min="8" max="8" width="8.875" style="1" bestFit="1" customWidth="1"/>
@@ -1371,13 +1335,13 @@
       <c r="G1" s="11"/>
     </row>
     <row r="2" spans="2:70" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1385,145 +1349,145 @@
         <v>1</v>
       </c>
       <c r="J2" s="14"/>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="43"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="29"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="43"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="30"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="44"/>
       <c r="Z2" s="17"/>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="30"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="44"/>
       <c r="AH2" s="18"/>
-      <c r="AI2" s="19" t="s">
+      <c r="AI2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="34"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="34"/>
     </row>
     <row r="3" spans="2:70" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="19">
         <v>43526</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="32"/>
-      <c r="AT3" s="32"/>
-      <c r="AU3" s="32"/>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="32"/>
-      <c r="AX3" s="32"/>
-      <c r="AY3" s="32"/>
-      <c r="AZ3" s="32"/>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="32"/>
-      <c r="BC3" s="32"/>
-      <c r="BD3" s="32"/>
-      <c r="BE3" s="32"/>
-      <c r="BF3" s="32"/>
-      <c r="BG3" s="32"/>
-      <c r="BH3" s="32"/>
-      <c r="BI3" s="32"/>
-      <c r="BJ3" s="32"/>
-      <c r="BK3" s="32"/>
-      <c r="BL3" s="32"/>
-      <c r="BM3" s="32"/>
-      <c r="BN3" s="32"/>
-      <c r="BO3" s="32"/>
-      <c r="BP3" s="32"/>
-      <c r="BQ3" s="32"/>
-      <c r="BR3" s="33">
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
+      <c r="BB3" s="45"/>
+      <c r="BC3" s="45"/>
+      <c r="BD3" s="45"/>
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="45"/>
+      <c r="BK3" s="45"/>
+      <c r="BL3" s="45"/>
+      <c r="BM3" s="45"/>
+      <c r="BN3" s="45"/>
+      <c r="BO3" s="45"/>
+      <c r="BP3" s="45"/>
+      <c r="BQ3" s="45"/>
+      <c r="BR3" s="20">
         <v>43588</v>
       </c>
     </row>
     <row r="4" spans="2:70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1715,302 +1679,254 @@
       </c>
     </row>
     <row r="5" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="28">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28">
+        <v>23</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0</v>
+      </c>
+      <c r="F5" s="28">
+        <v>0</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="21"/>
+    </row>
+    <row r="6" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1</v>
+      </c>
+      <c r="D6" s="28">
+        <v>7</v>
+      </c>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="BR6" s="21"/>
+    </row>
+    <row r="7" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="28">
+        <v>8</v>
+      </c>
+      <c r="D7" s="28">
+        <v>5</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="BR7" s="21"/>
+    </row>
+    <row r="8" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="28">
+        <v>13</v>
+      </c>
+      <c r="D8" s="28">
+        <v>7</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
+      <c r="BR8" s="21"/>
+    </row>
+    <row r="9" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="28">
+        <v>20</v>
+      </c>
+      <c r="D9" s="28">
+        <v>4</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="BR9" s="21"/>
+    </row>
+    <row r="10" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="37">
-        <v>1</v>
-      </c>
-      <c r="D5" s="37">
+      <c r="C10" s="24">
+        <v>21</v>
+      </c>
+      <c r="D10" s="24">
         <v>7</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E10" s="24">
         <v>0</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F10" s="24">
         <v>0</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G10" s="25">
         <v>0</v>
       </c>
-      <c r="BR5" s="34"/>
-    </row>
-    <row r="6" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="39" t="s">
+      <c r="BR10" s="21"/>
+    </row>
+    <row r="11" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="26">
         <v>21</v>
       </c>
-      <c r="C6" s="40">
-        <v>1</v>
-      </c>
-      <c r="D6" s="37">
+      <c r="D11" s="24">
         <v>3</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="BR6" s="34"/>
-    </row>
-    <row r="7" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="39" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+      <c r="BR11" s="21"/>
+    </row>
+    <row r="12" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="24">
         <v>24</v>
       </c>
-      <c r="C7" s="37">
+      <c r="D12" s="24">
         <v>4</v>
       </c>
-      <c r="D7" s="37">
-        <v>4</v>
-      </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
-      <c r="BR7" s="34"/>
-    </row>
-    <row r="8" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="42">
-        <v>8</v>
-      </c>
-      <c r="D8" s="42">
-        <v>23</v>
-      </c>
-      <c r="E8" s="42">
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="BR12" s="21"/>
+    </row>
+    <row r="13" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="30">
+        <v>29</v>
+      </c>
+      <c r="D13" s="30">
+        <v>7</v>
+      </c>
+      <c r="E13" s="30">
         <v>0</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F13" s="30">
         <v>0</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G13" s="31">
         <v>0</v>
       </c>
-      <c r="BR8" s="34"/>
-    </row>
-    <row r="9" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="45">
+      <c r="BR13" s="21"/>
+    </row>
+    <row r="14" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="30">
         <v>29</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D14" s="30">
+        <v>2</v>
+      </c>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="BR14" s="21"/>
+    </row>
+    <row r="15" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="30">
+        <v>31</v>
+      </c>
+      <c r="D15" s="30">
+        <v>5</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="BR15" s="21"/>
+    </row>
+    <row r="16" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="49">
+        <v>36</v>
+      </c>
+      <c r="D16" s="49">
+        <v>14</v>
+      </c>
+      <c r="E16" s="49">
+        <v>0</v>
+      </c>
+      <c r="F16" s="49">
+        <v>0</v>
+      </c>
+      <c r="G16" s="50">
+        <v>0</v>
+      </c>
+      <c r="BR16" s="21"/>
+    </row>
+    <row r="17" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="52">
+        <v>50</v>
+      </c>
+      <c r="D17" s="52">
         <v>7</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E17" s="52">
         <v>0</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F17" s="52">
         <v>0</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G17" s="53">
         <v>0</v>
       </c>
-      <c r="BR9" s="34"/>
-    </row>
-    <row r="10" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="45">
-        <v>29</v>
-      </c>
-      <c r="D10" s="45">
-        <v>2</v>
-      </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
-      <c r="BR10" s="34"/>
-    </row>
-    <row r="11" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="45">
-        <v>31</v>
-      </c>
-      <c r="D11" s="45">
-        <v>5</v>
-      </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
-      <c r="BR11" s="34"/>
-    </row>
-    <row r="12" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="7">
-        <v>36</v>
-      </c>
-      <c r="D12" s="7">
-        <v>14</v>
-      </c>
-      <c r="E12" s="7">
+      <c r="BR17" s="21"/>
+    </row>
+    <row r="18" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="55">
+        <v>57</v>
+      </c>
+      <c r="D18" s="55">
+        <v>7</v>
+      </c>
+      <c r="E18" s="55">
         <v>0</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F18" s="55">
         <v>0</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G18" s="56">
         <v>0</v>
       </c>
-      <c r="BR12" s="34"/>
-    </row>
-    <row r="13" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7">
-        <v>50</v>
-      </c>
-      <c r="D13" s="7">
-        <v>7</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="BR13" s="34"/>
-    </row>
-    <row r="14" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="7">
-        <v>57</v>
-      </c>
-      <c r="D14" s="7">
-        <v>7</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="BR14" s="34"/>
-    </row>
-    <row r="15" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="35"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-    </row>
-    <row r="16" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-    </row>
-    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="35"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-    </row>
-    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-    </row>
-    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
+      <c r="BR18" s="21"/>
+    </row>
+    <row r="19" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="22"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -2035,7 +1951,7 @@
       <c r="Z19"/>
       <c r="AA19"/>
     </row>
-    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2062,8 +1978,8 @@
       <c r="Z20"/>
       <c r="AA20"/>
     </row>
-    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
+    <row r="21" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="22"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -2089,7 +2005,7 @@
       <c r="Z21"/>
       <c r="AA21"/>
     </row>
-    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2116,9 +2032,9 @@
       <c r="Z22"/>
       <c r="AA22"/>
     </row>
-    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -2143,7 +2059,7 @@
       <c r="Z23"/>
       <c r="AA23"/>
     </row>
-    <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -2170,7 +2086,7 @@
       <c r="Z24"/>
       <c r="AA24"/>
     </row>
-    <row r="25" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -2197,7 +2113,7 @@
       <c r="Z25"/>
       <c r="AA25"/>
     </row>
-    <row r="26" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2224,7 +2140,7 @@
       <c r="Z26"/>
       <c r="AA26"/>
     </row>
-    <row r="27" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -2251,7 +2167,7 @@
       <c r="Z27"/>
       <c r="AA27"/>
     </row>
-    <row r="28" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -2278,7 +2194,7 @@
       <c r="Z28"/>
       <c r="AA28"/>
     </row>
-    <row r="29" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2305,7 +2221,7 @@
       <c r="Z29"/>
       <c r="AA29"/>
     </row>
-    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -2332,7 +2248,7 @@
       <c r="Z30"/>
       <c r="AA30"/>
     </row>
-    <row r="31" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2359,7 +2275,7 @@
       <c r="Z31"/>
       <c r="AA31"/>
     </row>
-    <row r="32" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:70" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -2440,6 +2356,114 @@
       <c r="Z34"/>
       <c r="AA34"/>
     </row>
+    <row r="35" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="8"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+    </row>
+    <row r="36" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="8"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+    </row>
+    <row r="37" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="8"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+    </row>
+    <row r="38" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="8"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="AI2:AP2"/>
@@ -2456,74 +2480,74 @@
     <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="I3:BQ3"/>
   </mergeCells>
-  <conditionalFormatting sqref="H15:H34">
-    <cfRule type="expression" dxfId="28" priority="28">
+  <conditionalFormatting sqref="H19:H38">
+    <cfRule type="expression" dxfId="20" priority="28">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="30">
+    <cfRule type="expression" dxfId="19" priority="30">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="31">
+    <cfRule type="expression" dxfId="18" priority="31">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="32">
+    <cfRule type="expression" dxfId="17" priority="32">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="33">
+    <cfRule type="expression" dxfId="16" priority="33">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="34">
+    <cfRule type="expression" dxfId="15" priority="34">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="38">
+    <cfRule type="expression" dxfId="14" priority="38">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="39">
+    <cfRule type="expression" dxfId="13" priority="39">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B35:BO35 BQ35:BR35">
-    <cfRule type="expression" dxfId="20" priority="29">
+  <conditionalFormatting sqref="B39:BO39 BQ39:BR39">
+    <cfRule type="expression" dxfId="12" priority="29">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="19" priority="35">
+    <cfRule type="expression" dxfId="11" priority="35">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BR14">
-    <cfRule type="expression" dxfId="18" priority="19">
+  <conditionalFormatting sqref="H5:BR18">
+    <cfRule type="expression" dxfId="10" priority="19">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="9" priority="20">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="21">
+    <cfRule type="expression" dxfId="8" priority="21">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="22">
+    <cfRule type="expression" dxfId="7" priority="22">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="23">
+    <cfRule type="expression" dxfId="6" priority="23">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="24">
+    <cfRule type="expression" dxfId="5" priority="24">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="26">
+    <cfRule type="expression" dxfId="4" priority="26">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="27">
+    <cfRule type="expression" dxfId="3" priority="27">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ4:BR4">
-    <cfRule type="expression" dxfId="10" priority="25">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>BQ$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP35">
+  <conditionalFormatting sqref="BP39">
     <cfRule type="expression" dxfId="1" priority="11">
       <formula>TRUE</formula>
     </cfRule>
@@ -2554,8 +2578,8 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="40" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
